--- a/data/trans_dic/P1805-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1805-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,12 +735,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,22</t>
+          <t>1,15; 3,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,46; 7,3</t>
+          <t>2,6; 7,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +755,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,72; 6,95</t>
+          <t>2,47; 7,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 7,37</t>
+          <t>3,69; 7,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +775,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,58</t>
+          <t>2,13; 4,63</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,82</t>
+          <t>3,63; 6,56</t>
         </is>
       </c>
     </row>
@@ -874,12 +875,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,03</t>
+          <t>0,77; 3,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,71</t>
+          <t>2,06; 5,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +895,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,38</t>
+          <t>0,93; 4,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,44</t>
+          <t>4,28; 8,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +915,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,41</t>
+          <t>1,22; 3,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 6,12</t>
+          <t>3,47; 6,28</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,27</t>
+          <t>1,26; 3,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,81</t>
+          <t>0,54; 4,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1035,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 12,21</t>
+          <t>3,38; 12,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 7,36</t>
+          <t>2,19; 6,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1055,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 5,07</t>
+          <t>2,09; 5,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,99</t>
+          <t>0,84; 4,18</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1155,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,1</t>
+          <t>0,7; 2,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,32</t>
+          <t>2,08; 4,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1175,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 5,95</t>
+          <t>2,79; 5,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,76</t>
+          <t>1,7; 4,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1195,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,21</t>
+          <t>1,76; 3,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,12</t>
+          <t>2,17; 4,07</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1295,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,09</t>
+          <t>0,81; 2,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,09</t>
+          <t>1,04; 3,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,12 +1315,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,62</t>
+          <t>2,48; 5,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,42</t>
+          <t>2,03; 4,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,12 +1335,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 3,91</t>
+          <t>1,96; 3,97</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 3,73</t>
+          <t>2,05; 3,81</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1435,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,99; 4,42</t>
+          <t>1,0; 4,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,93; 13,05</t>
+          <t>2,15; 13,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,12 +1455,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,36</t>
+          <t>2,15; 4,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,87</t>
+          <t>2,1; 5,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,12 +1475,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,06</t>
+          <t>2,16; 4,19</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,64</t>
+          <t>2,5; 5,78</t>
         </is>
       </c>
     </row>
@@ -1574,12 +1575,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,31</t>
+          <t>1,37; 2,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,35; 3,98</t>
+          <t>2,35; 4,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1594,12 +1595,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,01; 4,41</t>
+          <t>3,12; 4,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,13; 4,62</t>
+          <t>3,09; 4,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1614,12 +1615,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,39; 3,2</t>
+          <t>2,4; 3,21</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,05</t>
+          <t>2,92; 4,09</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que en los últimos 12 meses han visitado un psicologo o psicoterapeuta</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9979</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>22292</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>15014</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>24114</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>24993</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>46407</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1995</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4941; 17004</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13145; 38133</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1969</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2125</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8581; 24683</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16513; 33046</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1988</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2098</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16528; 35959</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>34569; 62482</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7280</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>16179</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8455</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>23238</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>15735</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>39417</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2007</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2138</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2903; 14863</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>9296; 25320</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1961</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2120</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3454; 16296</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16371; 33307</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1987</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2134</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>9144; 25828</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>28966; 52464</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12661</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13323</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11057</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6989</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>23718</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>20312</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1954</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2041</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6551; 20778</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3630; 26912</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1951</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2038</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5619; 20045</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3655; 11600</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1956</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14404; 35253</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7029; 34913</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>14036</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>31509</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>34107</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>32984</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>48143</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>64494</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1941</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2053</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>8028; 24025</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>21520; 45282</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1973</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2068</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>23059; 48238</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>16615; 47087</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1954</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2060</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>34675; 63462</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>43643; 81971</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>10337</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>10467</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>28262</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>26105</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>38599</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>36571</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1973</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2009</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5008; 18203</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4958; 18026</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2022</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2077</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>18344; 40805</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>17097; 35750</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2051</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>26629; 53889</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>26959; 50122</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6770</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>12977</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>34044</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>24282</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>40814</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>37259</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1864</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2882; 13654</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>5173; 31265</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1936</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2039</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>23263; 48757</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>15986; 38243</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1923</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2018</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>29555; 57375</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>25027; 57893</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>61063</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>106747</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>130939</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>137713</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>192002</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>244460</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1958</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2050</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>46349; 78045</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>79393; 137587</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>110346; 158480</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>110444; 161682</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2061</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>166179; 222163</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>203048; 284045</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P1805-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1805-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
